--- a/templates/order/torg12.xlsx
+++ b/templates/order/torg12.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Низ!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$19:$21</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -229,8 +229,15 @@
     <t>ИП</t>
   </si>
   <si>
-    <t>ИП Рублёв Александр Александрович, ИНН 773013683314, г.Москва Кутузовский проезд д.16 стр.15,
+    <t>ИП Рублёв Александр Александрович, ИНН 773013683314, 121601 г.Москва Филевский бульвар д.40 кв.334
 р/сч 40802810938000063715 в ПАО "Сбербанк" г.Москва БИК 044525225 к/сч 30101810400000000225</t>
+  </si>
+  <si>
+    <t>ИП Рублёв Александр Александрович, ИНН 773013683314, 121601 г.Москва Филевский бульвар д.40 кв.334,
+р/сч 40802810938000063715 в ПАО "Сбербанк" г.Москва БИК 044525225 к/сч 30101810400000000225</t>
+  </si>
+  <si>
+    <t>"        "_______________20    г.</t>
   </si>
 </sst>
 </file>
@@ -821,378 +828,378 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1504,645 +1511,682 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="37" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="7" style="39" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="7" style="39" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="1" style="39" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="40" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="6" style="39" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="39" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="39" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="8" style="39" customWidth="1"/>
-    <col min="22" max="22" width="12" style="41" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="42"/>
+    <col min="1" max="1" width="4.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="34" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="7" style="36" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="7" style="36" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="1" style="36" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="37" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="6" style="36" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="36" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="36" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="36" customWidth="1"/>
+    <col min="21" max="21" width="8" style="36" customWidth="1"/>
+    <col min="22" max="22" width="12" style="38" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="38"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="114" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="114" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="118" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="120"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="102" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="122">
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="90">
         <v>330212</v>
       </c>
-      <c r="U5" s="123"/>
-      <c r="V5" s="124"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="92"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="102" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="102"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="53"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
     </row>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="56"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="53"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="102" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="56"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="102" t="s">
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="102"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="56"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="53"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="102" t="s">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="102"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="62"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="48" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="64"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="102" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="102"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="48" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="110" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="117"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="111" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="111"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="117"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="68" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="111" t="s">
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="110" t="s">
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="56"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="53"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="105" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105" t="s">
+      <c r="H16" s="96"/>
+      <c r="I16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="107" t="s">
+      <c r="J16" s="96"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="56"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="53"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="100" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="102" t="s">
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" spans="1:22" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="85" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="85" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="106"/>
+      <c r="N19" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="85" t="s">
+      <c r="O19" s="119"/>
+      <c r="P19" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="85" t="s">
+      <c r="Q19" s="103"/>
+      <c r="R19" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="93" t="s">
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="123" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="75" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="76" t="s">
+      <c r="H20" s="101"/>
+      <c r="I20" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="85" t="s">
+      <c r="K20" s="102"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="85" t="s">
+      <c r="S20" s="103"/>
+      <c r="T20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="94"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="124"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76">
+      <c r="A21" s="73">
         <v>1</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="109">
         <v>2</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="75">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="72">
         <v>3</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="73">
         <v>4</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="72">
         <v>5</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="73">
         <v>6</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="73">
         <v>7</v>
       </c>
-      <c r="J21" s="75">
+      <c r="J21" s="72">
         <v>8</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="73">
         <v>9</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="111">
         <v>10</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="98">
+      <c r="M21" s="112"/>
+      <c r="N21" s="113">
         <v>11</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="83">
+      <c r="O21" s="114"/>
+      <c r="P21" s="111">
         <v>12</v>
       </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="83">
+      <c r="Q21" s="112"/>
+      <c r="R21" s="111">
         <v>13</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83">
+      <c r="S21" s="112"/>
+      <c r="T21" s="111">
         <v>14</v>
       </c>
-      <c r="U21" s="84"/>
-      <c r="V21" s="77">
+      <c r="U21" s="112"/>
+      <c r="V21" s="74">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2159,43 +2203,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2212,33 +2219,33 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="34"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="128"/>
+      <c r="Q1" s="141"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2246,12 +2253,12 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2263,25 +2270,25 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="11"/>
@@ -2300,16 +2307,16 @@
       <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="139"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2326,18 +2333,18 @@
       <c r="V4" s="18"/>
     </row>
     <row r="5" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="126"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2358,14 +2365,14 @@
     <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2392,7 +2399,7 @@
       <c r="D7" s="135"/>
       <c r="E7" s="136"/>
       <c r="F7" s="136"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
@@ -2406,12 +2413,12 @@
       <c r="P7" s="137"/>
       <c r="Q7" s="137"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-    </row>
-    <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+    </row>
+    <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2422,22 +2429,22 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="31" t="s">
+      <c r="L8" s="127"/>
+      <c r="M8" s="143" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="s">
@@ -2473,31 +2480,31 @@
       </c>
       <c r="B10" s="134"/>
       <c r="C10" s="134"/>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133" t="s">
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="143" t="s">
+      <c r="P10" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2506,7 +2513,7 @@
       <c r="D11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="9"/>
@@ -2530,28 +2537,24 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2568,7 +2571,7 @@
       <c r="D13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="9"/>
@@ -2583,60 +2586,60 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143" t="s">
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143" t="s">
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="143"/>
+      <c r="V13" s="126"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="133" t="s">
+      <c r="G14" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="139" t="s">
+      <c r="K14" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="1"/>
@@ -2650,20 +2653,20 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="143" t="s">
+      <c r="O15" s="21"/>
+      <c r="P15" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143" t="s">
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143" t="s">
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="V15" s="143"/>
+      <c r="V15" s="126"/>
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2672,43 +2675,32 @@
         <v>60</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="E16" s="78" t="s">
+        <v>67</v>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="75" t="s">
         <v>60</v>
       </c>
       <c r="O16" s="18"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
+      <c r="Q16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
+  <mergeCells count="33">
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2722,13 +2714,19 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/torg12.xlsx
+++ b/templates/order/torg12.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Унифицированная форма № ТОРГ-12</t>
   </si>
@@ -772,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1006,9 +1006,111 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,13 +1120,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,159 +1144,64 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1539,112 +1540,112 @@
       <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="40"/>
       <c r="P2" s="41"/>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="80" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
       <c r="O4" s="40"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
-      <c r="T4" s="86" t="s">
+      <c r="T4" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="79" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
       <c r="S5" s="41"/>
-      <c r="T5" s="90">
+      <c r="T5" s="122">
         <v>330212</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="124"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
@@ -1665,10 +1666,10 @@
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="79"/>
+      <c r="R6" s="102"/>
       <c r="S6" s="41"/>
       <c r="T6" s="48"/>
       <c r="U6" s="49"/>
@@ -1701,38 +1702,38 @@
       <c r="V7" s="53"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="79" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
       <c r="S8" s="41"/>
       <c r="T8" s="51"/>
       <c r="U8" s="52"/>
       <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
       <c r="E9" s="55"/>
@@ -1749,48 +1750,48 @@
       <c r="N9" s="57"/>
       <c r="O9" s="57"/>
       <c r="P9" s="41"/>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="79"/>
+      <c r="R9" s="102"/>
       <c r="S9" s="41"/>
       <c r="T9" s="51"/>
       <c r="U9" s="52"/>
       <c r="V9" s="53"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94" t="s">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="47"/>
-      <c r="Q10" s="79" t="s">
+      <c r="Q10" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="79"/>
+      <c r="R10" s="102"/>
       <c r="S10" s="41"/>
       <c r="T10" s="58"/>
       <c r="U10" s="44"/>
       <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="93"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="55"/>
@@ -1807,34 +1808,34 @@
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="41"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
       <c r="S11" s="41"/>
       <c r="T11" s="60"/>
       <c r="U11" s="41"/>
       <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
       <c r="P12" s="47"/>
-      <c r="Q12" s="79" t="s">
+      <c r="Q12" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="79"/>
+      <c r="R12" s="102"/>
       <c r="S12" s="41"/>
       <c r="T12" s="51"/>
       <c r="U12" s="52"/>
@@ -1859,42 +1860,42 @@
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="85" t="s">
+      <c r="Q13" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="83"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="117"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="82"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="64"/>
-      <c r="Q14" s="83" t="s">
+      <c r="Q14" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="83"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="117"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
@@ -1910,18 +1911,18 @@
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
       <c r="K15" s="55"/>
-      <c r="L15" s="83" t="s">
+      <c r="L15" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85" t="s">
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
       <c r="T15" s="51"/>
       <c r="U15" s="52"/>
       <c r="V15" s="53"/>
@@ -1933,25 +1934,25 @@
       <c r="D16" s="63"/>
       <c r="E16" s="41"/>
       <c r="F16" s="64"/>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97" t="s">
+      <c r="H16" s="106"/>
+      <c r="I16" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="96"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="67"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="98" t="s">
+      <c r="Q16" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="51"/>
       <c r="U16" s="52"/>
       <c r="V16" s="53"/>
@@ -1960,25 +1961,25 @@
       <c r="A17" s="62"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="68"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="79" t="s">
+      <c r="P17" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
       <c r="S17" s="69"/>
       <c r="T17" s="51"/>
       <c r="U17" s="52"/>
@@ -2009,58 +2010,58 @@
       <c r="V18" s="71"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="101" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="101" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="101" t="s">
+      <c r="J19" s="91"/>
+      <c r="K19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="106"/>
-      <c r="N19" s="118" t="s">
+      <c r="M19" s="95"/>
+      <c r="N19" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="119"/>
-      <c r="P19" s="101" t="s">
+      <c r="O19" s="88"/>
+      <c r="P19" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="101" t="s">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="123" t="s">
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="93" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
-      <c r="B20" s="101" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="72" t="s">
         <v>33</v>
       </c>
@@ -2070,39 +2071,39 @@
       <c r="G20" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="101"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="73" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="101" t="s">
+      <c r="K20" s="86"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="103"/>
-      <c r="T20" s="101" t="s">
+      <c r="S20" s="91"/>
+      <c r="T20" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="106"/>
-      <c r="V20" s="124"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="94"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>1</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="96">
         <v>2</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="72">
         <v>3</v>
       </c>
@@ -2124,69 +2125,32 @@
       <c r="K21" s="73">
         <v>9</v>
       </c>
-      <c r="L21" s="111">
+      <c r="L21" s="83">
         <v>10</v>
       </c>
-      <c r="M21" s="112"/>
-      <c r="N21" s="113">
+      <c r="M21" s="84"/>
+      <c r="N21" s="98">
         <v>11</v>
       </c>
-      <c r="O21" s="114"/>
-      <c r="P21" s="111">
+      <c r="O21" s="99"/>
+      <c r="P21" s="83">
         <v>12</v>
       </c>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="111">
+      <c r="Q21" s="84"/>
+      <c r="R21" s="83">
         <v>13</v>
       </c>
-      <c r="S21" s="112"/>
-      <c r="T21" s="111">
+      <c r="S21" s="84"/>
+      <c r="T21" s="83">
         <v>14</v>
       </c>
-      <c r="U21" s="112"/>
+      <c r="U21" s="84"/>
       <c r="V21" s="74">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C12:O12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A2:N4"/>
@@ -2203,6 +2167,43 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0.31496062992125984"/>
@@ -2219,18 +2220,18 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2242,10 +2243,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="141" t="s">
+      <c r="P1" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="141"/>
+      <c r="Q1" s="128"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2270,19 +2271,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2313,10 +2314,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="139"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2341,10 +2342,10 @@
       <c r="D5" s="29"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="139"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2371,8 +2372,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2429,11 +2430,11 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="128" t="s">
+      <c r="K8" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="127"/>
-      <c r="M8" s="143" t="s">
+      <c r="L8" s="142"/>
+      <c r="M8" s="79" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="18"/>
@@ -2442,9 +2443,9 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="s">
@@ -2483,28 +2484,28 @@
       <c r="D10" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="130" t="s">
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="127"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="126" t="s">
+      <c r="P10" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2537,24 +2538,24 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2568,9 +2569,7 @@
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="25" t="s">
         <v>55</v>
       </c>
@@ -2586,43 +2585,43 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="126" t="s">
+      <c r="P13" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126" t="s">
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126" t="s">
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="126"/>
+      <c r="V13" s="143"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="130" t="s">
+      <c r="G14" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="131" t="s">
+      <c r="K14" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
       <c r="O14" s="21"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
@@ -2654,19 +2653,19 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="126" t="s">
+      <c r="P15" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126" t="s">
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126" t="s">
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="V15" s="126"/>
+      <c r="V15" s="143"/>
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2686,21 +2685,27 @@
         <v>60</v>
       </c>
       <c r="O16" s="18"/>
-      <c r="Q16" t="s">
+      <c r="Q16" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -2714,19 +2719,13 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/torg12.xlsx
+++ b/templates/order/torg12.xlsx
@@ -1009,6 +1009,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,7 +1202,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1508,7 +1508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1522,17 +1524,17 @@
     <col min="9" max="9" width="7" style="36" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="36" customWidth="1"/>
     <col min="11" max="11" width="7" style="36" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="36" customWidth="1"/>
     <col min="13" max="13" width="1" style="36" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="8" style="37" customWidth="1"/>
     <col min="15" max="15" width="3.42578125" style="37" customWidth="1"/>
     <col min="16" max="16" width="6" style="36" customWidth="1"/>
     <col min="17" max="17" width="5.140625" style="36" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="36" customWidth="1"/>
     <col min="19" max="19" width="3.140625" style="36" customWidth="1"/>
     <col min="20" max="20" width="3.42578125" style="36" customWidth="1"/>
-    <col min="21" max="21" width="8" style="36" customWidth="1"/>
-    <col min="22" max="22" width="12" style="38" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="36" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="38" customWidth="1"/>
     <col min="23" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
@@ -1540,112 +1542,112 @@
       <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
       <c r="O2" s="40"/>
       <c r="P2" s="41"/>
-      <c r="Q2" s="114" t="s">
+      <c r="Q2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="114" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
     </row>
     <row r="4" spans="1:22" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
       <c r="O4" s="40"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
-      <c r="T4" s="118" t="s">
+      <c r="T4" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="121"/>
     </row>
     <row r="5" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="102" t="s">
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
       <c r="S5" s="41"/>
-      <c r="T5" s="122">
+      <c r="T5" s="123">
         <v>330212</v>
       </c>
-      <c r="U5" s="123"/>
-      <c r="V5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="125"/>
     </row>
     <row r="6" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
@@ -1666,10 +1668,10 @@
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47"/>
-      <c r="Q6" s="102" t="s">
+      <c r="Q6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="102"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="41"/>
       <c r="T6" s="48"/>
       <c r="U6" s="49"/>
@@ -1702,38 +1704,38 @@
       <c r="V7" s="53"/>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="102" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
       <c r="S8" s="41"/>
       <c r="T8" s="51"/>
       <c r="U8" s="52"/>
       <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
       <c r="E9" s="55"/>
@@ -1750,48 +1752,48 @@
       <c r="N9" s="57"/>
       <c r="O9" s="57"/>
       <c r="P9" s="41"/>
-      <c r="Q9" s="102" t="s">
+      <c r="Q9" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="102"/>
+      <c r="R9" s="103"/>
       <c r="S9" s="41"/>
       <c r="T9" s="51"/>
       <c r="U9" s="52"/>
       <c r="V9" s="53"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
       <c r="P10" s="47"/>
-      <c r="Q10" s="102" t="s">
+      <c r="Q10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="102"/>
+      <c r="R10" s="103"/>
       <c r="S10" s="41"/>
       <c r="T10" s="58"/>
       <c r="U10" s="44"/>
       <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="55"/>
@@ -1808,34 +1810,34 @@
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="41"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
       <c r="S11" s="41"/>
       <c r="T11" s="60"/>
       <c r="U11" s="41"/>
       <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
       <c r="P12" s="47"/>
-      <c r="Q12" s="102" t="s">
+      <c r="Q12" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="102"/>
+      <c r="R12" s="103"/>
       <c r="S12" s="41"/>
       <c r="T12" s="51"/>
       <c r="U12" s="52"/>
@@ -1860,42 +1862,42 @@
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="110" t="s">
+      <c r="Q13" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="82"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
     </row>
     <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
       <c r="P14" s="64"/>
-      <c r="Q14" s="111" t="s">
+      <c r="Q14" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="111"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="82"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="83"/>
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
@@ -1911,18 +1913,18 @@
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
       <c r="K15" s="55"/>
-      <c r="L15" s="111" t="s">
+      <c r="L15" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="110" t="s">
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
       <c r="T15" s="51"/>
       <c r="U15" s="52"/>
       <c r="V15" s="53"/>
@@ -1934,25 +1936,25 @@
       <c r="D16" s="63"/>
       <c r="E16" s="41"/>
       <c r="F16" s="64"/>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105" t="s">
+      <c r="H16" s="107"/>
+      <c r="I16" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="106"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="67"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="107" t="s">
+      <c r="Q16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="110"/>
       <c r="T16" s="51"/>
       <c r="U16" s="52"/>
       <c r="V16" s="53"/>
@@ -1961,25 +1963,25 @@
       <c r="A17" s="62"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="91"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="68"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="102" t="s">
+      <c r="P17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
       <c r="S17" s="69"/>
       <c r="T17" s="51"/>
       <c r="U17" s="52"/>
@@ -2010,58 +2012,58 @@
       <c r="V18" s="71"/>
     </row>
     <row r="19" spans="1:22" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="85" t="s">
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="85" t="s">
+      <c r="G19" s="92"/>
+      <c r="H19" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="85" t="s">
+      <c r="J19" s="92"/>
+      <c r="K19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="96"/>
+      <c r="N19" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="85" t="s">
+      <c r="O19" s="89"/>
+      <c r="P19" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="85" t="s">
+      <c r="Q19" s="92"/>
+      <c r="R19" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="93" t="s">
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="94" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="32.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="72" t="s">
         <v>33</v>
       </c>
@@ -2071,39 +2073,39 @@
       <c r="G20" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="73" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="85" t="s">
+      <c r="K20" s="87"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="85" t="s">
+      <c r="S20" s="92"/>
+      <c r="T20" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="94"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="95"/>
     </row>
     <row r="21" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>1</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="97">
         <v>2</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="72">
         <v>3</v>
       </c>
@@ -2125,26 +2127,26 @@
       <c r="K21" s="73">
         <v>9</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="84">
         <v>10</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="98">
+      <c r="M21" s="85"/>
+      <c r="N21" s="99">
         <v>11</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="83">
+      <c r="O21" s="100"/>
+      <c r="P21" s="84">
         <v>12</v>
       </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="83">
+      <c r="Q21" s="85"/>
+      <c r="R21" s="84">
         <v>13</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83">
+      <c r="S21" s="85"/>
+      <c r="T21" s="84">
         <v>14</v>
       </c>
-      <c r="U21" s="84"/>
+      <c r="U21" s="85"/>
       <c r="V21" s="74">
         <v>15</v>
       </c>
@@ -2226,12 +2228,12 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -2243,10 +2245,10 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="128"/>
+      <c r="Q1" s="129"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2271,19 +2273,19 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
       <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2314,10 +2316,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="127"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2342,10 +2344,10 @@
       <c r="D5" s="29"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="126"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2372,8 +2374,8 @@
         <v>42</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2392,27 +2394,27 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="18"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
@@ -2430,10 +2432,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="142"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="79" t="s">
         <v>61</v>
       </c>
@@ -2443,22 +2445,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="18"/>
       <c r="K9" s="4" t="s">
         <v>51</v>
@@ -2476,36 +2478,36 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133" t="s">
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="143" t="s">
+      <c r="P10" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -2538,24 +2540,24 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2585,43 +2587,43 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143" t="s">
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143" t="s">
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="143"/>
+      <c r="V13" s="144"/>
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="133" t="s">
+      <c r="G14" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="139" t="s">
+      <c r="K14" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="21"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
@@ -2653,19 +2655,19 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="143" t="s">
+      <c r="P15" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143" t="s">
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143" t="s">
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="V15" s="143"/>
+      <c r="V15" s="144"/>
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -2685,11 +2687,11 @@
         <v>60</v>
       </c>
       <c r="O16" s="18"/>
-      <c r="Q16" s="144" t="s">
+      <c r="Q16" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="33">
